--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Government design.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Government design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="113">
   <si>
     <t>Goverment</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>feudal_government muslim_government theocracy_government merchant_republic_government republic_government tribal_government oriental_monarchy_government</t>
+  </si>
+  <si>
+    <t>Classical</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,12 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
@@ -459,26 +456,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -811,13 +822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:GC19"/>
+  <dimension ref="A2:GC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI19" sqref="AI19"/>
+      <selection pane="bottomRight" activeCell="BF20" sqref="BF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,131 +840,131 @@
     <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="3" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="7" customWidth="1"/>
     <col min="15" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="7" customWidth="1"/>
     <col min="19" max="21" width="3.7109375" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="7" customWidth="1"/>
     <col min="23" max="32" width="3.7109375" customWidth="1"/>
-    <col min="33" max="33" width="3.140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="3.140625" style="7" customWidth="1"/>
     <col min="34" max="39" width="3.7109375" customWidth="1"/>
-    <col min="40" max="40" width="3.140625" style="6" customWidth="1"/>
+    <col min="40" max="40" width="3.140625" style="7" customWidth="1"/>
     <col min="41" max="51" width="3.7109375" customWidth="1"/>
-    <col min="52" max="52" width="3.140625" style="6" customWidth="1"/>
+    <col min="52" max="52" width="3.140625" style="7" customWidth="1"/>
     <col min="53" max="59" width="3.7109375" customWidth="1"/>
-    <col min="60" max="60" width="3.140625" style="6" customWidth="1"/>
+    <col min="60" max="60" width="3.140625" style="7" customWidth="1"/>
     <col min="61" max="63" width="3.7109375" customWidth="1"/>
-    <col min="64" max="64" width="3.140625" style="6" customWidth="1"/>
+    <col min="64" max="64" width="3.140625" style="7" customWidth="1"/>
     <col min="65" max="68" width="3.7109375" customWidth="1"/>
-    <col min="69" max="69" width="3.140625" style="6" customWidth="1"/>
+    <col min="69" max="69" width="3.140625" style="7" customWidth="1"/>
     <col min="70" max="72" width="3.7109375" customWidth="1"/>
-    <col min="73" max="73" width="3.140625" style="6" customWidth="1"/>
+    <col min="73" max="73" width="3.140625" style="7" customWidth="1"/>
     <col min="74" max="79" width="3.7109375" customWidth="1"/>
-    <col min="80" max="80" width="3.140625" style="6" customWidth="1"/>
+    <col min="80" max="80" width="3.140625" style="7" customWidth="1"/>
     <col min="81" max="185" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:185" x14ac:dyDescent="0.25">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="11" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="11" t="s">
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="11" t="s">
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="11" t="s">
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="11" t="s">
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="11" t="s">
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="11" t="s">
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="11"/>
-      <c r="BZ2" s="11" t="s">
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="10"/>
+      <c r="BZ2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="CA2" s="9"/>
-      <c r="CB2" s="12"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="11"/>
     </row>
     <row r="3" spans="1:185" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -965,203 +976,203 @@
       <c r="C3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="10" t="s">
+      <c r="R3" s="12"/>
+      <c r="S3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="10" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="10" t="s">
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AK3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AL3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AM3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="10" t="s">
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AP3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AR3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AS3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AT3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AU3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AV3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AW3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AX3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AY3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="10" t="s">
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BB3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BC3" s="10" t="s">
+      <c r="BC3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BD3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="BE3" s="10" t="s">
+      <c r="BE3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="BF3" s="10" t="s">
+      <c r="BF3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="BG3" s="10" t="s">
+      <c r="BG3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="10" t="s">
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="10" t="s">
+      <c r="BJ3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="10" t="s">
+      <c r="BK3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="10" t="s">
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="BN3" s="10" t="s">
+      <c r="BN3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="BO3" s="10" t="s">
+      <c r="BO3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="BP3" s="10" t="s">
+      <c r="BP3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="BQ3" s="13"/>
-      <c r="BR3" s="10" t="s">
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BS3" s="10" t="s">
+      <c r="BS3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="BT3" s="10" t="s">
+      <c r="BT3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="BU3" s="13"/>
-      <c r="BV3" s="10" t="s">
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BW3" s="10" t="s">
+      <c r="BW3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BX3" s="10" t="s">
+      <c r="BX3" s="9" t="s">
         <v>72</v>
       </c>
       <c r="BY3" s="1"/>
-      <c r="BZ3" s="10" t="s">
+      <c r="BZ3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="CA3" s="10" t="s">
+      <c r="CA3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="CB3" s="13"/>
+      <c r="CB3" s="12"/>
       <c r="CC3" s="1"/>
       <c r="CD3" s="1"/>
       <c r="CE3" s="1"/>
@@ -1269,94 +1280,94 @@
       <c r="GC3" s="1"/>
     </row>
     <row r="4" spans="1:185" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="D4" s="9"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="12"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="9"/>
-      <c r="BK4" s="9"/>
-      <c r="BL4" s="12"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="9"/>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="9"/>
-      <c r="BQ4" s="12"/>
-      <c r="BR4" s="9"/>
-      <c r="BS4" s="9"/>
-      <c r="BT4" s="9"/>
-      <c r="BU4" s="12"/>
-      <c r="BV4" s="9"/>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="9"/>
-      <c r="BZ4" s="9"/>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="12"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="11"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="11"/>
+      <c r="BV4" s="8"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="11"/>
     </row>
     <row r="5" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1726,7 +1737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:185" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1751,7 +1762,7 @@
       <c r="AB12" t="s">
         <v>63</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AH12" s="14" t="s">
         <v>90</v>
       </c>
       <c r="AI12" s="3" t="s">
@@ -1832,81 +1843,70 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:185" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:185" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="6"/>
-      <c r="T14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="Y14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG14" s="6"/>
-      <c r="AI14" s="8" t="s">
+      <c r="AI14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AN14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BC14" s="7" t="s">
+      <c r="BC14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BF14" s="7">
+      <c r="BF14" s="6">
         <v>2</v>
       </c>
-      <c r="BG14" s="7">
+      <c r="BG14" s="6">
         <v>-10</v>
       </c>
-      <c r="BH14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BQ14" s="6"/>
-      <c r="BT14" s="7">
+      <c r="BT14" s="6">
         <v>3</v>
       </c>
-      <c r="BU14" s="6"/>
-      <c r="BW14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="CB14" s="6"/>
+      <c r="BW14" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2157,13 +2157,64 @@
       </c>
       <c r="CA19" s="3"/>
     </row>
+    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF20" s="6">
+        <v>2</v>
+      </c>
+      <c r="BG20" s="6"/>
+      <c r="BZ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="CA20" s="3"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>$E$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>

--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Government design.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Government design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="115">
   <si>
     <t>Goverment</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>Classical</t>
+  </si>
+  <si>
+    <t>oriental_monarchy_government classical government</t>
+  </si>
+  <si>
+    <t>feudal_government muslim_government republic_government merchant_republic_government classical_government</t>
   </si>
 </sst>
 </file>
@@ -825,10 +831,10 @@
   <dimension ref="A2:GC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AB13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BF20" sqref="BF20"/>
+      <selection pane="bottomRight" activeCell="BL19" sqref="BL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,7 +2144,7 @@
         <v>63</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AI19" s="3" t="s">
         <v>110</v>
@@ -2186,16 +2192,16 @@
         <v>63</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AI20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BB20" s="5" t="s">
+      <c r="BB20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BF20" s="6">
-        <v>2</v>
+      <c r="BF20" s="3">
+        <v>-2</v>
       </c>
       <c r="BG20" s="6"/>
       <c r="BZ20" t="s">

--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Government design.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Government design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="118">
   <si>
     <t>Goverment</t>
   </si>
@@ -373,12 +373,24 @@
   <si>
     <t>feudal_government muslim_government republic_government merchant_republic_government classical_government</t>
   </si>
+  <si>
+    <t>Anarchical</t>
+  </si>
+  <si>
+    <t>TRIBAL CASTLE</t>
+  </si>
+  <si>
+    <t>anarchical_government</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +416,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
@@ -476,15 +495,25 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -828,13 +857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:GC20"/>
+  <dimension ref="A2:GC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AB13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="U20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BL19" sqref="BL19"/>
+      <selection pane="bottomRight" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,47 +1772,58 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:185" ht="285" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AB12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH12" s="14" t="s">
+      <c r="N12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="AB12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AI12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AT12" s="3"/>
-      <c r="BB12" t="s">
+      <c r="AN12" s="15"/>
+      <c r="AT12" s="4"/>
+      <c r="AZ12" s="15"/>
+      <c r="BB12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BZ12" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BH12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BU12" s="15"/>
+      <c r="BZ12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CA12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB12" s="15"/>
     </row>
     <row r="13" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1860,7 +1900,7 @@
         <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>66</v>
@@ -1895,7 +1935,7 @@
       <c r="AE14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AI14" s="15" t="s">
+      <c r="AI14" s="14" t="s">
         <v>71</v>
       </c>
       <c r="BC14" s="6" t="s">
@@ -2209,18 +2249,158 @@
       </c>
       <c r="CA20" s="3"/>
     </row>
+    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <v>2</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="T21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="AM21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="4">
+        <v>-4</v>
+      </c>
+      <c r="BG21" s="4">
+        <v>-20</v>
+      </c>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="15"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="15"/>
+      <c r="BV21" s="2"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="2"/>
+      <c r="BY21" s="2"/>
+      <c r="BZ21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CA21" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+      <formula>$E$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>
